--- a/report/files/RASCI.xlsx
+++ b/report/files/RASCI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gardo\My Drive\Documenti università\Project-Management\repo\report\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949D5F64-A19F-4E8A-BEAE-8C08D26D0DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499BE5B1-D2A7-4F31-964C-63D787D61C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{11153A15-50FB-4B3C-AC2F-7D35DD240FA8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
   <si>
     <t>1.1</t>
   </si>
@@ -125,9 +125,6 @@
     <t>2.7</t>
   </si>
   <si>
-    <t>Caricamento modello su Sagemaker</t>
-  </si>
-  <si>
     <t>2.8</t>
   </si>
   <si>
@@ -170,15 +167,9 @@
     <t>3.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Creazione mock-ups pagine </t>
-  </si>
-  <si>
     <t>3.3</t>
   </si>
   <si>
-    <t>Validazione mock-ups con stakeholder</t>
-  </si>
-  <si>
     <t>3.4</t>
   </si>
   <si>
@@ -342,6 +333,24 @@
   </si>
   <si>
     <t>4.3</t>
+  </si>
+  <si>
+    <t>Gestione errori post rilascio logica</t>
+  </si>
+  <si>
+    <t>Gestione errori post rilascio infrastruttura</t>
+  </si>
+  <si>
+    <t>Gestione errori post rilascio portali web</t>
+  </si>
+  <si>
+    <t>Caricamento modello su SageMaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creazione mockup pagine </t>
+  </si>
+  <si>
+    <t>Validazione mockup con stakeholder</t>
   </si>
 </sst>
 </file>
@@ -507,7 +516,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,6 +754,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -936,7 +951,7 @@
     <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1001,6 +1016,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1376,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E209EA-0C4B-4F48-9D5E-67B3B5235E6E}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1400,43 +1416,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.55" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.45" x14ac:dyDescent="0.5">
@@ -1457,7 +1473,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="13"/>
       <c r="M2" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.45" x14ac:dyDescent="0.5">
@@ -1478,7 +1494,7 @@
       <c r="K3" s="14"/>
       <c r="L3" s="13"/>
       <c r="M3" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.45" x14ac:dyDescent="0.5">
@@ -1499,7 +1515,7 @@
       <c r="K4" s="14"/>
       <c r="L4" s="13"/>
       <c r="M4" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.45" x14ac:dyDescent="0.5">
@@ -1520,7 +1536,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="13"/>
       <c r="M5" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.45" x14ac:dyDescent="0.5">
@@ -1541,7 +1557,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="13"/>
       <c r="M6" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -1711,7 +1727,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1726,10 +1742,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>31</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1744,7 +1760,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>23</v>
@@ -1762,10 +1778,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>34</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1780,10 +1796,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>36</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1798,10 +1814,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>37</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>38</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1816,10 +1832,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>39</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>40</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1834,10 +1850,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>41</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>42</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1852,10 +1868,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1870,10 +1886,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1888,10 +1904,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1906,10 +1922,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1924,10 +1940,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1942,10 +1958,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1960,10 +1976,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1978,10 +1994,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1996,10 +2012,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2014,10 +2030,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2032,10 +2048,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2050,10 +2066,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2068,10 +2084,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2086,10 +2102,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2104,16 +2120,16 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="12"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="11"/>
       <c r="H38" s="16"/>
       <c r="I38" s="12"/>
       <c r="J38" s="14"/>
@@ -2122,16 +2138,16 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="17"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="11"/>
       <c r="H39" s="16"/>
       <c r="I39" s="12"/>
       <c r="J39" s="14"/>
@@ -2140,16 +2156,16 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="11"/>
       <c r="H40" s="16"/>
       <c r="I40" s="4"/>
       <c r="J40" s="14"/>
@@ -2161,7 +2177,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -2176,10 +2192,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2194,16 +2210,16 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="11"/>
       <c r="H43" s="16"/>
       <c r="I43" s="4"/>
       <c r="J43" s="15"/>
@@ -2212,10 +2228,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2230,22 +2246,67 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="11"/>
       <c r="H45" s="16"/>
       <c r="I45" s="4"/>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
       <c r="L45" s="13"/>
     </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B46" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B47" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="13"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B48" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
